--- a/Projeto Traders/Projeto Algoritmos/Algoritmo Informe DayTrade.xlsx
+++ b/Projeto Traders/Projeto Algoritmos/Algoritmo Informe DayTrade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="8370" tabRatio="859" activeTab="13"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="859"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -406,13 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -421,7 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +428,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -443,7 +436,98 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -460,98 +544,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,19 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,25 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,25 +692,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,61 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,41 +933,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,6 +954,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -998,6 +974,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,159 +1006,172 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2395,7 +2395,9 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="93"/>
+      <c r="F1" s="93">
+        <v>0</v>
+      </c>
       <c r="G1" s="93"/>
       <c r="I1" s="21" t="s">
         <v>1</v>
@@ -5933,7 +5935,7 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
